--- a/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F1_dim10.xlsx
+++ b/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F1_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>226867156.5973889</v>
       </c>
       <c r="AZ2" t="n">
-        <v>658787299.5500624</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>373201935.343595</v>
+        <v>367490228.0594656</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>243894336.9513631</v>
@@ -1011,15 +1002,12 @@
         <v>129478451.0387609</v>
       </c>
       <c r="AZ3" t="n">
-        <v>189783758.2725815</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>259245907.1554798</v>
+        <v>260635150.1331378</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>153485032.8097449</v>
@@ -1172,15 +1160,12 @@
         <v>91701101.85170692</v>
       </c>
       <c r="AZ4" t="n">
-        <v>37581631.2776713</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>101814083.5271378</v>
+        <v>103098732.5721272</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>200</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>6675896.31297897</v>
@@ -1333,15 +1318,12 @@
         <v>23215112.20885216</v>
       </c>
       <c r="AZ5" t="n">
-        <v>21970508.39721689</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>14673003.89080882</v>
+        <v>14527053.80068066</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>6675896.31297897</v>
@@ -1494,15 +1476,12 @@
         <v>15095176.31738738</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4845664.95483596</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>7103541.57894301</v>
+        <v>7148699.11142516</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>599</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>2769926.73858194</v>
@@ -1655,15 +1634,12 @@
         <v>7821247.44522388</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4378208.91422802</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>4036070.81247421</v>
+        <v>4029228.05043914</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>799</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>1017836.74672779</v>
@@ -1816,15 +1792,12 @@
         <v>1442954.00554967</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1144030.33754088</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>2318857.09334368</v>
+        <v>2342353.62845974</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>999</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>323795.73583433</v>
@@ -1977,15 +1950,12 @@
         <v>1442954.00554967</v>
       </c>
       <c r="AZ9" t="n">
-        <v>416265.10907611</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>1171494.74770685</v>
+        <v>1186599.34047946</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1199</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>169639.72284082</v>
@@ -2138,15 +2108,12 @@
         <v>1028299.35380506</v>
       </c>
       <c r="AZ10" t="n">
-        <v>416265.10907611</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>674293.51750141</v>
+        <v>679454.08566992</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1399</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>24235.52754396</v>
@@ -2299,15 +2266,12 @@
         <v>936533.92502798</v>
       </c>
       <c r="AZ11" t="n">
-        <v>251694.51450856</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>386952.1220893</v>
+        <v>389657.27424091</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>1598</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>12963.34091662</v>
@@ -2460,15 +2424,12 @@
         <v>551020.98924998</v>
       </c>
       <c r="AZ12" t="n">
-        <v>107463.06597171</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>274078.56847324</v>
+        <v>277410.87852327</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>1798</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>2809.36711788</v>
@@ -2621,15 +2582,12 @@
         <v>23275.48052037</v>
       </c>
       <c r="AZ13" t="n">
-        <v>92809.27770231001</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>147618.72450175</v>
+        <v>148714.91343774</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>1998</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>724.2366086</v>
@@ -2782,10 +2740,7 @@
         <v>8152.75651437</v>
       </c>
       <c r="AZ14" t="n">
-        <v>46256.6247933</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>82587.84093863</v>
+        <v>83314.46526154</v>
       </c>
     </row>
   </sheetData>
